--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/64.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/64.xlsx
@@ -479,13 +479,13 @@
         <v>-2.814373904262884</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.749209026182214</v>
+        <v>-8.609933108551932</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.043125217158532</v>
+        <v>-3.056715027508244</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.477010500041092</v>
+        <v>-5.427835810567569</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.630100401468727</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.001039471342814</v>
+        <v>-8.853567772133612</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.131288784494716</v>
+        <v>-3.150521377369211</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.413630661984296</v>
+        <v>-5.353379884306673</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.478424804518078</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.814542800716305</v>
+        <v>-9.673970745104693</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.017006072989289</v>
+        <v>-3.036133927441051</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.282105387636316</v>
+        <v>-5.229055376521642</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.358781630701546</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.57782405638894</v>
+        <v>-10.44605002828696</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.919416047607063</v>
+        <v>-2.938452255938933</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.496007431464436</v>
+        <v>-5.436489822745949</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.251882824707724</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.35524499913063</v>
+        <v>-11.22398157083948</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.770910056473364</v>
+        <v>-2.784696251365701</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.050149058189455</v>
+        <v>-4.989675711363523</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.139636574662302</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.01139194064941</v>
+        <v>-11.88668775608197</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.739946760252682</v>
+        <v>-2.75540876990876</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.182093286228371</v>
+        <v>-5.127904244766467</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.000826690612356</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.51189758598576</v>
+        <v>-12.3847713253926</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.617376621048443</v>
+        <v>-2.63457990698247</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.741079065004828</v>
+        <v>-4.688094515404362</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.820207647776881</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.48084582699907</v>
+        <v>-13.36092033296885</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.370154666488129</v>
+        <v>-2.381021277846762</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.650781452305443</v>
+        <v>-4.607563760624905</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.577797872060906</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.22414822853522</v>
+        <v>-14.10965604018433</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.351210104276151</v>
+        <v>-2.356237548567374</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.265317872039344</v>
+        <v>-4.23987952761787</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.265984063139332</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.92351286173454</v>
+        <v>-14.80574759767322</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.17128258632231</v>
+        <v>-2.179111783421662</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.053458227454533</v>
+        <v>-4.024432592054427</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.8787816806546466</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.58589173940599</v>
+        <v>-15.47046999755333</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.162209620452994</v>
+        <v>-2.163453389222958</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.538276110632612</v>
+        <v>-3.508700598513153</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.4169768823245474</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.55444721133404</v>
+        <v>-16.4409762226048</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.994588867170375</v>
+        <v>-1.998870050199619</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.899738316435949</v>
+        <v>-2.867426513022568</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1035085265674149</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.18768262287981</v>
+        <v>-17.08558884532003</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.718786415506574</v>
+        <v>-1.717359354496826</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.522562163868662</v>
+        <v>-2.504848278123807</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6686890241068318</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.09140501113563</v>
+        <v>-17.99109178676233</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.549450570551689</v>
+        <v>-1.547879494210682</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.928158522551457</v>
+        <v>-1.908389145260451</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.253426895442557</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.00531321100232</v>
+        <v>-18.90843016997355</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.389999414242307</v>
+        <v>-1.379826694934286</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.559518551436976</v>
+        <v>-1.559636382162552</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.830967889206894</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.79047170472348</v>
+        <v>-19.69839353883762</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.153133471229799</v>
+        <v>-1.132539278859764</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.028952978776027</v>
+        <v>-1.033757853918941</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.377193208329722</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.77651849324808</v>
+        <v>-20.68559245001229</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.055530353544731</v>
+        <v>-1.034242269124084</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6651702520158267</v>
+        <v>-0.6695561734678049</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.862767617256386</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.61538161322599</v>
+        <v>-21.52469123144135</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9079146390042697</v>
+        <v>-0.8816776641094507</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2912540828561302</v>
+        <v>-0.3036655859500865</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.269276018908482</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.27025860136913</v>
+        <v>-22.17302206816363</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6619233609110786</v>
+        <v>-0.6243484517553248</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07269884384101277</v>
+        <v>0.07666581160205578</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.580664478715827</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.89357004736086</v>
+        <v>-22.80486969560817</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3642567635015947</v>
+        <v>-0.3231338402757332</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3956466780378697</v>
+        <v>0.3928318329268986</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.786962210638681</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.52387278307008</v>
+        <v>-23.43523789283159</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.09907216944243324</v>
+        <v>-0.05186132539516904</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3602058142453172</v>
+        <v>0.3569982000490943</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.889239922417336</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.03320264052175</v>
+        <v>-23.94662324182942</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01833960244216614</v>
+        <v>0.06578610794058141</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6336909283061331</v>
+        <v>0.6155449965675007</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.890814911102019</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.41379588413073</v>
+        <v>-24.32794965439753</v>
       </c>
       <c r="F24" t="n">
-        <v>0.000115116886483455</v>
+        <v>0.04536211550748875</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5562892339058486</v>
+        <v>0.5469151450711727</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.804682309042598</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.68137636960993</v>
+        <v>-24.60299275249651</v>
       </c>
       <c r="F25" t="n">
-        <v>0.285370211202011</v>
+        <v>0.3309445173940595</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5457368378154174</v>
+        <v>0.5356033954159214</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.64731244711286</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.69237390399697</v>
+        <v>-24.62116486884083</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3034244968207513</v>
+        <v>0.3436047742420086</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3929365713496324</v>
+        <v>0.3759034853525468</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.438479989232385</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.65976097761823</v>
+        <v>-24.59732378536604</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1216640564690683</v>
+        <v>0.1625775028494622</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3689252879379068</v>
+        <v>0.3528217554425837</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.201189336180157</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.76305924703945</v>
+        <v>-24.70962955914237</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2390496437479842</v>
+        <v>0.2784443829987379</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08389276277068856</v>
+        <v>0.06395318554273977</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.957166025435131</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.80642095405125</v>
+        <v>-24.75481109624917</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1982147511846406</v>
+        <v>0.2250801566158625</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01693106141344389</v>
+        <v>-0.03073034860862316</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.728625445531784</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.57205564088151</v>
+        <v>-24.52883794920097</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06492201595302749</v>
+        <v>0.09871324958752248</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2182121253021405</v>
+        <v>-0.2276123987424998</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.532414159507076</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.10590419820186</v>
+        <v>-24.05489658633049</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06815581475493383</v>
+        <v>0.09731237318345778</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6780661703149269</v>
+        <v>-0.6865499825563653</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.382721278525223</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.18893558282408</v>
+        <v>-24.1385825860948</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1335911443578807</v>
+        <v>0.1595662731958652</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7403462549330178</v>
+        <v>-0.7431349154383055</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.289806030507247</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.76347501737651</v>
+        <v>-23.71496803534792</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04731286863090593</v>
+        <v>0.07214896712166029</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.201928483920912</v>
+        <v>-1.206406051492782</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.256207041285138</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.2038969016183</v>
+        <v>-23.15531136577265</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1034580908944115</v>
+        <v>-0.08529906685293741</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.282459238700369</v>
+        <v>-1.279186162989937</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.282275020453948</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.85534052306302</v>
+        <v>-22.81285600034162</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2977216804599429</v>
+        <v>-0.2762895807080373</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.306326506780836</v>
+        <v>-1.302372631322634</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.362648321356902</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.12698953137212</v>
+        <v>-22.08731985376169</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4249264948701533</v>
+        <v>-0.4077886704503339</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.51229461508687</v>
+        <v>-1.504884371678453</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.487826570068931</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.32579296666985</v>
+        <v>-21.27411764735356</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.357841535109149</v>
+        <v>-0.3447492322674229</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.628109126024779</v>
+        <v>-1.633647170126829</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>2.650073839954347</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.9483156911372</v>
+        <v>-20.90034549352512</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.419401543070945</v>
+        <v>-0.4004438885561256</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.874794296168582</v>
+        <v>-1.883147185381603</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>2.83667779303478</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.29101662696835</v>
+        <v>-20.24656825882069</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2653051386238292</v>
+        <v>-0.2504322825956283</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.035305929008143</v>
+        <v>-2.036026005664438</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>3.037484251031939</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.97756071233174</v>
+        <v>-19.94338980191484</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5491462642324503</v>
+        <v>-0.531380009276228</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.255688662742918</v>
+        <v>-2.261082691513709</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>3.243882086513884</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.45274266061831</v>
+        <v>-19.40832047707633</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.273435458688541</v>
+        <v>-0.2531816661923908</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.110966347130478</v>
+        <v>-2.098594120945047</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>3.446037311364437</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.89667328202168</v>
+        <v>-18.84858525368402</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0198506449471488</v>
+        <v>0.006635083701663037</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.090961308388321</v>
+        <v>-2.069882700813142</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>3.638753256144115</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.00147398291582</v>
+        <v>-17.94490214233672</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.02826899567437866</v>
+        <v>-0.002725912830171102</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.986039593414728</v>
+        <v>-1.956739019654945</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>3.815157478162126</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.6638234926277</v>
+        <v>-17.60883582069245</v>
       </c>
       <c r="F44" t="n">
-        <v>0.02390383114989972</v>
+        <v>0.04214140900842413</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.194455962352165</v>
+        <v>-2.15740474531008</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>3.968548406126426</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.15531845025506</v>
+        <v>-17.0984454867106</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.009167325828300328</v>
+        <v>0.0128932044600081</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.239284007282235</v>
+        <v>-2.199823806517273</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.095061264444803</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.78053818910781</v>
+        <v>-16.72136098026321</v>
       </c>
       <c r="F46" t="n">
-        <v>0.006962391272706188</v>
+        <v>0.03169375134072673</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.192583763045798</v>
+        <v>-2.13927190587429</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.188374055769999</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.11355082083607</v>
+        <v>-16.05493658101367</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02139010900428832</v>
+        <v>0.03731034925982721</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.486793992505067</v>
+        <v>-2.428127383471292</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>4.245611411812843</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.456435048907</v>
+        <v>-15.40568928309247</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.007570064881609747</v>
+        <v>0.00655652988461268</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.42431752334435</v>
+        <v>-2.361186439041547</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>4.264427777559786</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.92741436798138</v>
+        <v>-14.86783129774868</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1379901581127007</v>
+        <v>0.1567252434792107</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.61894769738945</v>
+        <v>-2.541820941348842</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>4.243775457364745</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.23001358020831</v>
+        <v>-14.17179210947116</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2847941498769751</v>
+        <v>0.3051919577043843</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.547489908479309</v>
+        <v>-2.450253375273809</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>4.18726205999037</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.45925661961306</v>
+        <v>-13.40944040730029</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2806307975733062</v>
+        <v>0.2978733604158594</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.626436494614917</v>
+        <v>-2.51427473616985</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>4.097198680330208</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.86896396138816</v>
+        <v>-12.82215897872898</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3624576903340941</v>
+        <v>0.3834970210007479</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.639384782125384</v>
+        <v>-2.523517901976108</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>3.980279538053114</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.20874531368559</v>
+        <v>-12.17207377342592</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4112919799337323</v>
+        <v>0.4314672186128322</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.664103049890563</v>
+        <v>-2.542842140970496</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>3.842071130195505</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.8425797878082</v>
+        <v>-11.79408589808244</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2987767293119385</v>
+        <v>0.3233117048373332</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.77300482492804</v>
+        <v>-2.646925948562218</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>3.688442128975514</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.38285666582383</v>
+        <v>-11.33928548196656</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05214392837950285</v>
+        <v>0.07332727437741562</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.243790942813668</v>
+        <v>-3.110170900011012</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>3.526963074298936</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.94100453721842</v>
+        <v>-10.89528621569511</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1386709578604704</v>
+        <v>0.1657327478343182</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.313991870651003</v>
+        <v>-3.177949751822628</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>3.360728173261466</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.18255434129438</v>
+        <v>-10.13917954197975</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07433538169622854</v>
+        <v>0.1022612636576302</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.674566983214981</v>
+        <v>-3.543146447289734</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>3.196703032288562</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.877385854356591</v>
+        <v>-9.836014177376736</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.09386143291142626</v>
+        <v>-0.07181399492595957</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.712704861392929</v>
+        <v>-3.577605388369157</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>3.039168957788807</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.337341454438231</v>
+        <v>-9.292094455817226</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.01003141781585425</v>
+        <v>0.01966192502918047</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.991963681006946</v>
+        <v>-3.862624821233534</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>2.891892412021387</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.974200250517276</v>
+        <v>-8.929961359215083</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1476838898937621</v>
+        <v>-0.1178334394146267</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.903904852093496</v>
+        <v>-3.776176345569617</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>2.761187765489399</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.438829802713414</v>
+        <v>-8.404554153873775</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1665629905915311</v>
+        <v>-0.1430623069906328</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.30350811942866</v>
+        <v>-4.177769642936722</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>2.650493204750355</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.934723774095593</v>
+        <v>-7.892762943487861</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1108814266056702</v>
+        <v>-0.08537762066998777</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.266325979358157</v>
+        <v>-4.135979012265933</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>2.564932574187331</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.45502179797475</v>
+        <v>-7.406789754305831</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1666546367114232</v>
+        <v>-0.1429313839622156</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.26657473311215</v>
+        <v>-4.138977149616688</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>2.509829544410912</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.090414256135521</v>
+        <v>-7.059176021555162</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3222697482881792</v>
+        <v>-0.3008638331419571</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.516860286537427</v>
+        <v>-4.389249610739124</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>2.486377862675446</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.722769300037011</v>
+        <v>-6.682746130249854</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2707253520003037</v>
+        <v>-0.2473686837306644</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.800439566089214</v>
+        <v>-4.673496597735838</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>2.497317407043724</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.476791114246661</v>
+        <v>-6.434751729821879</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.385845970887601</v>
+        <v>-0.3647280864038969</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.789101631828279</v>
+        <v>-4.667225384674651</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>2.54279620310344</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.310348668219798</v>
+        <v>-6.272315528464584</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4392887510875269</v>
+        <v>-0.4195455584022039</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.900569498222735</v>
+        <v>-4.783052987915402</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>2.619677283317357</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.030762541034738</v>
+        <v>-5.995989384687113</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4060343018695426</v>
+        <v>-0.3901140616140037</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.895214746360469</v>
+        <v>-4.783354110880762</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>2.72747991874639</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.895139375897298</v>
+        <v>-5.862447895701507</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6604570229928053</v>
+        <v>-0.6446938903713672</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.993799786758666</v>
+        <v>-4.884767088692771</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>2.861644536948586</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.660368201339465</v>
+        <v>-5.623709753382633</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6102742262004693</v>
+        <v>-0.5895360184991753</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.857954052472917</v>
+        <v>-4.752626476111231</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>3.019094644220563</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.535598555257816</v>
+        <v>-5.500838491213034</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7072096364406091</v>
+        <v>-0.6902420119577322</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.83074824716781</v>
+        <v>-4.730814699576915</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>3.199361691277042</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.517701377273177</v>
+        <v>-5.480218114237315</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7960801881302456</v>
+        <v>-0.7832497313453541</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.723757948345225</v>
+        <v>-4.63315921268048</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>3.398238856518006</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.554346732927168</v>
+        <v>-5.512529917650695</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8553359507918978</v>
+        <v>-0.843382678297402</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.538528047740484</v>
+        <v>-4.446135666586423</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>3.615608721065763</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.791094845214101</v>
+        <v>-5.750377783376332</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7495763284364346</v>
+        <v>-0.7345725493798166</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.432938625321963</v>
+        <v>-4.33089721697355</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>3.850051278423581</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.987374649417258</v>
+        <v>-5.954447507770317</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.073610823769155</v>
+        <v>-1.067077764651134</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.26953359355438</v>
+        <v>-4.164206017192694</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>4.096391476937833</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.516775007125293</v>
+        <v>-6.481831650840726</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9841511184516406</v>
+        <v>-0.9784428744126481</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.107110484499927</v>
+        <v>-4.000211831797233</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>4.355069430048874</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.980975696681532</v>
+        <v>-6.947066632321462</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.039086421175523</v>
+        <v>-1.037030929629372</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.025558530098815</v>
+        <v>-3.919497784777992</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>4.619593469265295</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.559236528594889</v>
+        <v>-7.519710866315719</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.130339771982354</v>
+        <v>-1.129920818291419</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.629830584404803</v>
+        <v>-3.516202488041462</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>4.884689528808343</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.986019416629476</v>
+        <v>-7.946035523750845</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.090801017400341</v>
+        <v>-1.09526549266937</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.426284552124488</v>
+        <v>-3.305481873803881</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>5.146450635379978</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.456975734452046</v>
+        <v>-8.418981871605357</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.276502240907384</v>
+        <v>-1.280076439583175</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.059713164858999</v>
+        <v>-2.93782382540253</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>5.39534586118052</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.399922662021682</v>
+        <v>-9.361693137723842</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.19963733092361</v>
+        <v>-1.204141083101164</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.042837186496015</v>
+        <v>-2.913131742243035</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>5.629434074788489</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.22291791095543</v>
+        <v>-10.1883018622419</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.289502897629218</v>
+        <v>-1.296939325643318</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.868919035546525</v>
+        <v>-2.737799622586639</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>5.84168000456505</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.05456717206755</v>
+        <v>-11.02165312272345</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.392591690204969</v>
+        <v>-1.405762546863745</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.495631296923232</v>
+        <v>-2.364498791660504</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>6.026946786707224</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.26463635451692</v>
+        <v>-12.24095237867624</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.471957230031512</v>
+        <v>-1.481606257225864</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.389976412990503</v>
+        <v>-2.25896173845335</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>6.181948510089563</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.14673025847822</v>
+        <v>-13.12919966497314</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.566968071753918</v>
+        <v>-1.580832820463306</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.049956215888034</v>
+        <v>-1.912395389930019</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>6.299728720414746</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.33054937372993</v>
+        <v>-14.32480185278241</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.768799012361967</v>
+        <v>-1.790545327382074</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.79923861646898</v>
+        <v>-1.671549386853626</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>6.376986410077918</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42856153615697</v>
+        <v>-15.42869245918539</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.809921935587829</v>
+        <v>-1.832597804109698</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.388519984021192</v>
+        <v>-1.256418648348176</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>6.405799061244116</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.84097225902522</v>
+        <v>-16.84398348867882</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.833632096034195</v>
+        <v>-1.857145871937935</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.07797056061545</v>
+        <v>-0.9515905612842679</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>6.381083034027513</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.51808316074749</v>
+        <v>-18.54287998232972</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.060063473681847</v>
+        <v>-2.084821018355551</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.8716358678298468</v>
+        <v>-0.7405688240813272</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>6.296879201803327</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.13236410113231</v>
+        <v>-20.15685979974918</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.285774774673205</v>
+        <v>-2.305740536506837</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5757891005153628</v>
+        <v>-0.4511241928564472</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>6.146373233748687</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.95686814824673</v>
+        <v>-21.98556647607579</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.490852606386002</v>
+        <v>-2.517168135097871</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.7271884905770831</v>
+        <v>-0.6169382083469078</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>5.926935261995522</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.67690871098702</v>
+        <v>-23.71030717553626</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.595460106091393</v>
+        <v>-2.6208460813015</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.551502878743961</v>
+        <v>-0.4384246590999729</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>5.631068399480423</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.75071638881359</v>
+        <v>-25.78901137462563</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.779053468840918</v>
+        <v>-2.794306001651528</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.5442890198781699</v>
+        <v>-0.438280643768714</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>5.259370844147264</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.01589425727766</v>
+        <v>-28.05769798025129</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.648523209508909</v>
+        <v>-2.667349940995311</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.6833030914516173</v>
+        <v>-0.5730397169186003</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>4.813579388369587</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.29615445861541</v>
+        <v>-30.3396078117471</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.142417241910183</v>
+        <v>-3.156151067591153</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.056158784081134</v>
+        <v>-0.9609122809075769</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.287913436328219</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.47577412800881</v>
+        <v>-32.52263147987934</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.201489712332051</v>
+        <v>-3.215694860915324</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.274904979960693</v>
+        <v>-1.184214598176057</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>3.701696070155767</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.7022380569699</v>
+        <v>-34.74811348612731</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.571046144645453</v>
+        <v>-3.598251949950559</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.505172402340971</v>
+        <v>-1.421028171977198</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>3.042221311601271</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.20551254491361</v>
+        <v>-37.25390169621662</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.814811731255551</v>
+        <v>-3.84370644362724</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.925540061983112</v>
+        <v>-1.851228151053475</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>2.348887568121281</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.73332200838271</v>
+        <v>-39.79001167968738</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.703789003157713</v>
+        <v>-3.738247944237136</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.40126197804007</v>
+        <v>-2.3306420965118</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.594497786386527</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.30836850050476</v>
+        <v>-42.35603757515148</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.891624272027957</v>
+        <v>-3.919379954052416</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.754780339372358</v>
+        <v>-2.695917345795957</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.8562211709978786</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.564434126191</v>
+        <v>-44.5994822208983</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.1287520610973</v>
+        <v>-4.164075094164277</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.356410931858195</v>
+        <v>-3.305481873803881</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.04275389307045706</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.87288205554698</v>
+        <v>-46.90346567498525</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.269167009074812</v>
+        <v>-4.308954517410817</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.62396523273171</v>
+        <v>-3.583667124584877</v>
       </c>
     </row>
   </sheetData>
